--- a/FieldData/2015/xlsx_analysis/09-001-B Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/09-001-B Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F441A045EFDEE051046987A90D325368F3AEA7CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431CA638-B31C-4D22-BBB2-2871456E7959}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F441A045EFDEE051046987A90D325368F3AEA7CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD665DB-CEC7-44A7-B5D0-F5CB6811D417}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1320" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="96">
   <si>
     <t>PLOT</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>common watercress</t>
@@ -324,6 +318,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -840,9 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -864,54 +861,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2332,10 +2370,10 @@
   <dimension ref="A1:HZ156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I167" sqref="I167"/>
+      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2343,7 +2381,7 @@
     <col min="1" max="1" width="8.59765625" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.796875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="18" customWidth="1"/>
     <col min="5" max="5" width="22.8984375" style="10" customWidth="1"/>
     <col min="6" max="6" width="7.296875" style="10" customWidth="1"/>
     <col min="7" max="7" width="6.296875" style="10" customWidth="1"/>
@@ -2352,114 +2390,114 @@
     <col min="235" max="16384" width="8.59765625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:234" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="H1" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="D2" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="F2" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>31</v>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>4</v>
@@ -2468,330 +2506,334 @@
     </row>
     <row r="6" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>89</v>
+      <c r="D6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:234" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="31">
-        <v>21</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="32"/>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="32"/>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="32"/>
-      <c r="CJ7" s="32"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="32"/>
-      <c r="CM7" s="32"/>
-      <c r="CN7" s="32"/>
-      <c r="CO7" s="32"/>
-      <c r="CP7" s="32"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="32"/>
-      <c r="CS7" s="32"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="32"/>
-      <c r="CV7" s="32"/>
-      <c r="CW7" s="32"/>
-      <c r="CX7" s="32"/>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="32"/>
-      <c r="DA7" s="32"/>
-      <c r="DB7" s="32"/>
-      <c r="DC7" s="32"/>
-      <c r="DD7" s="32"/>
-      <c r="DE7" s="32"/>
-      <c r="DF7" s="32"/>
-      <c r="DG7" s="32"/>
-      <c r="DH7" s="32"/>
-      <c r="DI7" s="32"/>
-      <c r="DJ7" s="32"/>
-      <c r="DK7" s="32"/>
-      <c r="DL7" s="32"/>
-      <c r="DM7" s="32"/>
-      <c r="DN7" s="32"/>
-      <c r="DO7" s="32"/>
-      <c r="DP7" s="32"/>
-      <c r="DQ7" s="32"/>
-      <c r="DR7" s="32"/>
-      <c r="DS7" s="32"/>
-      <c r="DT7" s="32"/>
-      <c r="DU7" s="32"/>
-      <c r="DV7" s="32"/>
-      <c r="DW7" s="32"/>
-      <c r="DX7" s="32"/>
-      <c r="DY7" s="32"/>
-      <c r="DZ7" s="32"/>
-      <c r="EA7" s="32"/>
-      <c r="EB7" s="32"/>
-      <c r="EC7" s="32"/>
-      <c r="ED7" s="32"/>
-      <c r="EE7" s="32"/>
-      <c r="EF7" s="32"/>
-      <c r="EG7" s="32"/>
-      <c r="EH7" s="32"/>
-      <c r="EI7" s="32"/>
-      <c r="EJ7" s="32"/>
-      <c r="EK7" s="32"/>
-      <c r="EL7" s="32"/>
-      <c r="EM7" s="32"/>
-      <c r="EN7" s="32"/>
-      <c r="EO7" s="32"/>
-      <c r="EP7" s="32"/>
-      <c r="EQ7" s="32"/>
-      <c r="ER7" s="32"/>
-      <c r="ES7" s="32"/>
-      <c r="ET7" s="32"/>
-      <c r="EU7" s="32"/>
-      <c r="EV7" s="32"/>
-      <c r="EW7" s="32"/>
-      <c r="EX7" s="32"/>
-      <c r="EY7" s="32"/>
-      <c r="EZ7" s="32"/>
-      <c r="FA7" s="32"/>
-      <c r="FB7" s="32"/>
-      <c r="FC7" s="32"/>
-      <c r="FD7" s="32"/>
-      <c r="FE7" s="32"/>
-      <c r="FF7" s="32"/>
-      <c r="FG7" s="32"/>
-      <c r="FH7" s="32"/>
-      <c r="FI7" s="32"/>
-      <c r="FJ7" s="32"/>
-      <c r="FK7" s="32"/>
-      <c r="FL7" s="32"/>
-      <c r="FM7" s="32"/>
-      <c r="FN7" s="32"/>
-      <c r="FO7" s="32"/>
-      <c r="FP7" s="32"/>
-      <c r="FQ7" s="32"/>
-      <c r="FR7" s="32"/>
-      <c r="FS7" s="32"/>
-      <c r="FT7" s="32"/>
-      <c r="FU7" s="32"/>
-      <c r="FV7" s="32"/>
-      <c r="FW7" s="32"/>
-      <c r="FX7" s="32"/>
-      <c r="FY7" s="32"/>
-      <c r="FZ7" s="32"/>
-      <c r="GA7" s="32"/>
-      <c r="GB7" s="32"/>
-      <c r="GC7" s="32"/>
-      <c r="GD7" s="32"/>
-      <c r="GE7" s="32"/>
-      <c r="GF7" s="32"/>
-      <c r="GG7" s="32"/>
-      <c r="GH7" s="32"/>
-      <c r="GI7" s="32"/>
-      <c r="GJ7" s="32"/>
-      <c r="GK7" s="32"/>
-      <c r="GL7" s="32"/>
-      <c r="GM7" s="32"/>
-      <c r="GN7" s="32"/>
-      <c r="GO7" s="32"/>
-      <c r="GP7" s="32"/>
-      <c r="GQ7" s="32"/>
-      <c r="GR7" s="32"/>
-      <c r="GS7" s="32"/>
-      <c r="GT7" s="32"/>
-      <c r="GU7" s="32"/>
-      <c r="GV7" s="32"/>
-      <c r="GW7" s="32"/>
-      <c r="GX7" s="32"/>
-      <c r="GY7" s="32"/>
-      <c r="GZ7" s="32"/>
-      <c r="HA7" s="32"/>
-      <c r="HB7" s="32"/>
-      <c r="HC7" s="32"/>
-      <c r="HD7" s="32"/>
-      <c r="HE7" s="32"/>
-      <c r="HF7" s="32"/>
-      <c r="HG7" s="32"/>
-      <c r="HH7" s="32"/>
-      <c r="HI7" s="32"/>
-      <c r="HJ7" s="32"/>
-      <c r="HK7" s="32"/>
-      <c r="HL7" s="32"/>
-      <c r="HM7" s="32"/>
-      <c r="HN7" s="32"/>
-      <c r="HO7" s="32"/>
-      <c r="HP7" s="32"/>
-      <c r="HQ7" s="32"/>
-      <c r="HR7" s="32"/>
-      <c r="HS7" s="32"/>
-      <c r="HT7" s="32"/>
-      <c r="HU7" s="32"/>
-      <c r="HV7" s="32"/>
-      <c r="HW7" s="32"/>
-      <c r="HX7" s="32"/>
-      <c r="HY7" s="32"/>
-      <c r="HZ7" s="32"/>
+    <row r="7" spans="1:234" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="24"/>
+      <c r="BO7" s="24"/>
+      <c r="BP7" s="24"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="24"/>
+      <c r="BW7" s="24"/>
+      <c r="BX7" s="24"/>
+      <c r="BY7" s="24"/>
+      <c r="BZ7" s="24"/>
+      <c r="CA7" s="24"/>
+      <c r="CB7" s="24"/>
+      <c r="CC7" s="24"/>
+      <c r="CD7" s="24"/>
+      <c r="CE7" s="24"/>
+      <c r="CF7" s="24"/>
+      <c r="CG7" s="24"/>
+      <c r="CH7" s="24"/>
+      <c r="CI7" s="24"/>
+      <c r="CJ7" s="24"/>
+      <c r="CK7" s="24"/>
+      <c r="CL7" s="24"/>
+      <c r="CM7" s="24"/>
+      <c r="CN7" s="24"/>
+      <c r="CO7" s="24"/>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+      <c r="CR7" s="24"/>
+      <c r="CS7" s="24"/>
+      <c r="CT7" s="24"/>
+      <c r="CU7" s="24"/>
+      <c r="CV7" s="24"/>
+      <c r="CW7" s="24"/>
+      <c r="CX7" s="24"/>
+      <c r="CY7" s="24"/>
+      <c r="CZ7" s="24"/>
+      <c r="DA7" s="24"/>
+      <c r="DB7" s="24"/>
+      <c r="DC7" s="24"/>
+      <c r="DD7" s="24"/>
+      <c r="DE7" s="24"/>
+      <c r="DF7" s="24"/>
+      <c r="DG7" s="24"/>
+      <c r="DH7" s="24"/>
+      <c r="DI7" s="24"/>
+      <c r="DJ7" s="24"/>
+      <c r="DK7" s="24"/>
+      <c r="DL7" s="24"/>
+      <c r="DM7" s="24"/>
+      <c r="DN7" s="24"/>
+      <c r="DO7" s="24"/>
+      <c r="DP7" s="24"/>
+      <c r="DQ7" s="24"/>
+      <c r="DR7" s="24"/>
+      <c r="DS7" s="24"/>
+      <c r="DT7" s="24"/>
+      <c r="DU7" s="24"/>
+      <c r="DV7" s="24"/>
+      <c r="DW7" s="24"/>
+      <c r="DX7" s="24"/>
+      <c r="DY7" s="24"/>
+      <c r="DZ7" s="24"/>
+      <c r="EA7" s="24"/>
+      <c r="EB7" s="24"/>
+      <c r="EC7" s="24"/>
+      <c r="ED7" s="24"/>
+      <c r="EE7" s="24"/>
+      <c r="EF7" s="24"/>
+      <c r="EG7" s="24"/>
+      <c r="EH7" s="24"/>
+      <c r="EI7" s="24"/>
+      <c r="EJ7" s="24"/>
+      <c r="EK7" s="24"/>
+      <c r="EL7" s="24"/>
+      <c r="EM7" s="24"/>
+      <c r="EN7" s="24"/>
+      <c r="EO7" s="24"/>
+      <c r="EP7" s="24"/>
+      <c r="EQ7" s="24"/>
+      <c r="ER7" s="24"/>
+      <c r="ES7" s="24"/>
+      <c r="ET7" s="24"/>
+      <c r="EU7" s="24"/>
+      <c r="EV7" s="24"/>
+      <c r="EW7" s="24"/>
+      <c r="EX7" s="24"/>
+      <c r="EY7" s="24"/>
+      <c r="EZ7" s="24"/>
+      <c r="FA7" s="24"/>
+      <c r="FB7" s="24"/>
+      <c r="FC7" s="24"/>
+      <c r="FD7" s="24"/>
+      <c r="FE7" s="24"/>
+      <c r="FF7" s="24"/>
+      <c r="FG7" s="24"/>
+      <c r="FH7" s="24"/>
+      <c r="FI7" s="24"/>
+      <c r="FJ7" s="24"/>
+      <c r="FK7" s="24"/>
+      <c r="FL7" s="24"/>
+      <c r="FM7" s="24"/>
+      <c r="FN7" s="24"/>
+      <c r="FO7" s="24"/>
+      <c r="FP7" s="24"/>
+      <c r="FQ7" s="24"/>
+      <c r="FR7" s="24"/>
+      <c r="FS7" s="24"/>
+      <c r="FT7" s="24"/>
+      <c r="FU7" s="24"/>
+      <c r="FV7" s="24"/>
+      <c r="FW7" s="24"/>
+      <c r="FX7" s="24"/>
+      <c r="FY7" s="24"/>
+      <c r="FZ7" s="24"/>
+      <c r="GA7" s="24"/>
+      <c r="GB7" s="24"/>
+      <c r="GC7" s="24"/>
+      <c r="GD7" s="24"/>
+      <c r="GE7" s="24"/>
+      <c r="GF7" s="24"/>
+      <c r="GG7" s="24"/>
+      <c r="GH7" s="24"/>
+      <c r="GI7" s="24"/>
+      <c r="GJ7" s="24"/>
+      <c r="GK7" s="24"/>
+      <c r="GL7" s="24"/>
+      <c r="GM7" s="24"/>
+      <c r="GN7" s="24"/>
+      <c r="GO7" s="24"/>
+      <c r="GP7" s="24"/>
+      <c r="GQ7" s="24"/>
+      <c r="GR7" s="24"/>
+      <c r="GS7" s="24"/>
+      <c r="GT7" s="24"/>
+      <c r="GU7" s="24"/>
+      <c r="GV7" s="24"/>
+      <c r="GW7" s="24"/>
+      <c r="GX7" s="24"/>
+      <c r="GY7" s="24"/>
+      <c r="GZ7" s="24"/>
+      <c r="HA7" s="24"/>
+      <c r="HB7" s="24"/>
+      <c r="HC7" s="24"/>
+      <c r="HD7" s="24"/>
+      <c r="HE7" s="24"/>
+      <c r="HF7" s="24"/>
+      <c r="HG7" s="24"/>
+      <c r="HH7" s="24"/>
+      <c r="HI7" s="24"/>
+      <c r="HJ7" s="24"/>
+      <c r="HK7" s="24"/>
+      <c r="HL7" s="24"/>
+      <c r="HM7" s="24"/>
+      <c r="HN7" s="24"/>
+      <c r="HO7" s="24"/>
+      <c r="HP7" s="24"/>
+      <c r="HQ7" s="24"/>
+      <c r="HR7" s="24"/>
+      <c r="HS7" s="24"/>
+      <c r="HT7" s="24"/>
+      <c r="HU7" s="24"/>
+      <c r="HV7" s="24"/>
+      <c r="HW7" s="24"/>
+      <c r="HX7" s="24"/>
+      <c r="HY7" s="24"/>
+      <c r="HZ7" s="24"/>
     </row>
     <row r="8" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F8" s="5">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="20" t="s">
-        <v>37</v>
+      <c r="D10" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>4</v>
@@ -2800,3658 +2842,3676 @@
     </row>
     <row r="11" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="D12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>25</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2">
-        <v>51</v>
-      </c>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C18" s="30"/>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="30"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5">
-        <v>50</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F20" s="5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>35</v>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5">
-        <f>100-7-10-50-5</f>
-        <v>28</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2">
-        <v>134</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F26" s="5">
         <v>25</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>87</v>
+      <c r="D27" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="F27" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="9" t="s">
-        <v>36</v>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="5">
-        <v>20</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C34" s="30"/>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="5">
-        <v>40</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F34" s="2">
+        <v>25</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="5">
-        <v>8</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C36" s="30"/>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C37" s="30"/>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="5">
-        <v>17</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="2">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="20" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="5">
-        <v>17</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F38" s="2">
+        <v>15</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C39" s="30"/>
       <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="5">
-        <v>12</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="2">
-        <v>106</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F39" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="5">
-        <v>25</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="5">
-        <v>27</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="2">
-        <v>113</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C42" s="30"/>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="5">
-        <v>5</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F42" s="2">
+        <v>100</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C43" s="30"/>
       <c r="D43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="5">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="2"/>
+      <c r="F43" s="2">
+        <v>90</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C44" s="30"/>
       <c r="D44" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="5">
-        <v>33</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F44" s="2">
+        <v>20</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="5">
-        <v>5</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="30"/>
       <c r="D46" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="5">
-        <v>20</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F46" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C47" s="30"/>
       <c r="D47" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F47" s="2">
+        <v>7</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C48" s="30"/>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="5">
-        <v>25</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="2">
-        <v>144</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F48" s="2">
+        <v>85</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C49" s="30"/>
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="5">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C50" s="30"/>
       <c r="D50" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="5">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F50" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C51" s="30"/>
       <c r="D51" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="5">
-        <v>20</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="2">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F51" s="2">
+        <v>15</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C53" s="30"/>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="5">
-        <v>3</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F53" s="2">
+        <v>95</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="20" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F54" s="2">
+        <v>9</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:234" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="31">
+        <v>25</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="26"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="32"/>
-      <c r="AH56" s="32"/>
-      <c r="AI56" s="32"/>
-      <c r="AJ56" s="32"/>
-      <c r="AK56" s="32"/>
-      <c r="AL56" s="32"/>
-      <c r="AM56" s="32"/>
-      <c r="AN56" s="32"/>
-      <c r="AO56" s="32"/>
-      <c r="AP56" s="32"/>
-      <c r="AQ56" s="32"/>
-      <c r="AR56" s="32"/>
-      <c r="AS56" s="32"/>
-      <c r="AT56" s="32"/>
-      <c r="AU56" s="32"/>
-      <c r="AV56" s="32"/>
-      <c r="AW56" s="32"/>
-      <c r="AX56" s="32"/>
-      <c r="AY56" s="32"/>
-      <c r="AZ56" s="32"/>
-      <c r="BA56" s="32"/>
-      <c r="BB56" s="32"/>
-      <c r="BC56" s="32"/>
-      <c r="BD56" s="32"/>
-      <c r="BE56" s="32"/>
-      <c r="BF56" s="32"/>
-      <c r="BG56" s="32"/>
-      <c r="BH56" s="32"/>
-      <c r="BI56" s="32"/>
-      <c r="BJ56" s="32"/>
-      <c r="BK56" s="32"/>
-      <c r="BL56" s="32"/>
-      <c r="BM56" s="32"/>
-      <c r="BN56" s="32"/>
-      <c r="BO56" s="32"/>
-      <c r="BP56" s="32"/>
-      <c r="BQ56" s="32"/>
-      <c r="BR56" s="32"/>
-      <c r="BS56" s="32"/>
-      <c r="BT56" s="32"/>
-      <c r="BU56" s="32"/>
-      <c r="BV56" s="32"/>
-      <c r="BW56" s="32"/>
-      <c r="BX56" s="32"/>
-      <c r="BY56" s="32"/>
-      <c r="BZ56" s="32"/>
-      <c r="CA56" s="32"/>
-      <c r="CB56" s="32"/>
-      <c r="CC56" s="32"/>
-      <c r="CD56" s="32"/>
-      <c r="CE56" s="32"/>
-      <c r="CF56" s="32"/>
-      <c r="CG56" s="32"/>
-      <c r="CH56" s="32"/>
-      <c r="CI56" s="32"/>
-      <c r="CJ56" s="32"/>
-      <c r="CK56" s="32"/>
-      <c r="CL56" s="32"/>
-      <c r="CM56" s="32"/>
-      <c r="CN56" s="32"/>
-      <c r="CO56" s="32"/>
-      <c r="CP56" s="32"/>
-      <c r="CQ56" s="32"/>
-      <c r="CR56" s="32"/>
-      <c r="CS56" s="32"/>
-      <c r="CT56" s="32"/>
-      <c r="CU56" s="32"/>
-      <c r="CV56" s="32"/>
-      <c r="CW56" s="32"/>
-      <c r="CX56" s="32"/>
-      <c r="CY56" s="32"/>
-      <c r="CZ56" s="32"/>
-      <c r="DA56" s="32"/>
-      <c r="DB56" s="32"/>
-      <c r="DC56" s="32"/>
-      <c r="DD56" s="32"/>
-      <c r="DE56" s="32"/>
-      <c r="DF56" s="32"/>
-      <c r="DG56" s="32"/>
-      <c r="DH56" s="32"/>
-      <c r="DI56" s="32"/>
-      <c r="DJ56" s="32"/>
-      <c r="DK56" s="32"/>
-      <c r="DL56" s="32"/>
-      <c r="DM56" s="32"/>
-      <c r="DN56" s="32"/>
-      <c r="DO56" s="32"/>
-      <c r="DP56" s="32"/>
-      <c r="DQ56" s="32"/>
-      <c r="DR56" s="32"/>
-      <c r="DS56" s="32"/>
-      <c r="DT56" s="32"/>
-      <c r="DU56" s="32"/>
-      <c r="DV56" s="32"/>
-      <c r="DW56" s="32"/>
-      <c r="DX56" s="32"/>
-      <c r="DY56" s="32"/>
-      <c r="DZ56" s="32"/>
-      <c r="EA56" s="32"/>
-      <c r="EB56" s="32"/>
-      <c r="EC56" s="32"/>
-      <c r="ED56" s="32"/>
-      <c r="EE56" s="32"/>
-      <c r="EF56" s="32"/>
-      <c r="EG56" s="32"/>
-      <c r="EH56" s="32"/>
-      <c r="EI56" s="32"/>
-      <c r="EJ56" s="32"/>
-      <c r="EK56" s="32"/>
-      <c r="EL56" s="32"/>
-      <c r="EM56" s="32"/>
-      <c r="EN56" s="32"/>
-      <c r="EO56" s="32"/>
-      <c r="EP56" s="32"/>
-      <c r="EQ56" s="32"/>
-      <c r="ER56" s="32"/>
-      <c r="ES56" s="32"/>
-      <c r="ET56" s="32"/>
-      <c r="EU56" s="32"/>
-      <c r="EV56" s="32"/>
-      <c r="EW56" s="32"/>
-      <c r="EX56" s="32"/>
-      <c r="EY56" s="32"/>
-      <c r="EZ56" s="32"/>
-      <c r="FA56" s="32"/>
-      <c r="FB56" s="32"/>
-      <c r="FC56" s="32"/>
-      <c r="FD56" s="32"/>
-      <c r="FE56" s="32"/>
-      <c r="FF56" s="32"/>
-      <c r="FG56" s="32"/>
-      <c r="FH56" s="32"/>
-      <c r="FI56" s="32"/>
-      <c r="FJ56" s="32"/>
-      <c r="FK56" s="32"/>
-      <c r="FL56" s="32"/>
-      <c r="FM56" s="32"/>
-      <c r="FN56" s="32"/>
-      <c r="FO56" s="32"/>
-      <c r="FP56" s="32"/>
-      <c r="FQ56" s="32"/>
-      <c r="FR56" s="32"/>
-      <c r="FS56" s="32"/>
-      <c r="FT56" s="32"/>
-      <c r="FU56" s="32"/>
-      <c r="FV56" s="32"/>
-      <c r="FW56" s="32"/>
-      <c r="FX56" s="32"/>
-      <c r="FY56" s="32"/>
-      <c r="FZ56" s="32"/>
-      <c r="GA56" s="32"/>
-      <c r="GB56" s="32"/>
-      <c r="GC56" s="32"/>
-      <c r="GD56" s="32"/>
-      <c r="GE56" s="32"/>
-      <c r="GF56" s="32"/>
-      <c r="GG56" s="32"/>
-      <c r="GH56" s="32"/>
-      <c r="GI56" s="32"/>
-      <c r="GJ56" s="32"/>
-      <c r="GK56" s="32"/>
-      <c r="GL56" s="32"/>
-      <c r="GM56" s="32"/>
-      <c r="GN56" s="32"/>
-      <c r="GO56" s="32"/>
-      <c r="GP56" s="32"/>
-      <c r="GQ56" s="32"/>
-      <c r="GR56" s="32"/>
-      <c r="GS56" s="32"/>
-      <c r="GT56" s="32"/>
-      <c r="GU56" s="32"/>
-      <c r="GV56" s="32"/>
-      <c r="GW56" s="32"/>
-      <c r="GX56" s="32"/>
-      <c r="GY56" s="32"/>
-      <c r="GZ56" s="32"/>
-      <c r="HA56" s="32"/>
-      <c r="HB56" s="32"/>
-      <c r="HC56" s="32"/>
-      <c r="HD56" s="32"/>
-      <c r="HE56" s="32"/>
-      <c r="HF56" s="32"/>
-      <c r="HG56" s="32"/>
-      <c r="HH56" s="32"/>
-      <c r="HI56" s="32"/>
-      <c r="HJ56" s="32"/>
-      <c r="HK56" s="32"/>
-      <c r="HL56" s="32"/>
-      <c r="HM56" s="32"/>
-      <c r="HN56" s="32"/>
-      <c r="HO56" s="32"/>
-      <c r="HP56" s="32"/>
-      <c r="HQ56" s="32"/>
-      <c r="HR56" s="32"/>
-      <c r="HS56" s="32"/>
-      <c r="HT56" s="32"/>
-      <c r="HU56" s="32"/>
-      <c r="HV56" s="32"/>
-      <c r="HW56" s="32"/>
-      <c r="HX56" s="32"/>
-      <c r="HY56" s="32"/>
-      <c r="HZ56" s="32"/>
+      <c r="E55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="2">
+        <v>17</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:234" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2">
+        <v>25</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="30"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="24"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="24"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
+      <c r="AQ56" s="24"/>
+      <c r="AR56" s="24"/>
+      <c r="AS56" s="24"/>
+      <c r="AT56" s="24"/>
+      <c r="AU56" s="24"/>
+      <c r="AV56" s="24"/>
+      <c r="AW56" s="24"/>
+      <c r="AX56" s="24"/>
+      <c r="AY56" s="24"/>
+      <c r="AZ56" s="24"/>
+      <c r="BA56" s="24"/>
+      <c r="BB56" s="24"/>
+      <c r="BC56" s="24"/>
+      <c r="BD56" s="24"/>
+      <c r="BE56" s="24"/>
+      <c r="BF56" s="24"/>
+      <c r="BG56" s="24"/>
+      <c r="BH56" s="24"/>
+      <c r="BI56" s="24"/>
+      <c r="BJ56" s="24"/>
+      <c r="BK56" s="24"/>
+      <c r="BL56" s="24"/>
+      <c r="BM56" s="24"/>
+      <c r="BN56" s="24"/>
+      <c r="BO56" s="24"/>
+      <c r="BP56" s="24"/>
+      <c r="BQ56" s="24"/>
+      <c r="BR56" s="24"/>
+      <c r="BS56" s="24"/>
+      <c r="BT56" s="24"/>
+      <c r="BU56" s="24"/>
+      <c r="BV56" s="24"/>
+      <c r="BW56" s="24"/>
+      <c r="BX56" s="24"/>
+      <c r="BY56" s="24"/>
+      <c r="BZ56" s="24"/>
+      <c r="CA56" s="24"/>
+      <c r="CB56" s="24"/>
+      <c r="CC56" s="24"/>
+      <c r="CD56" s="24"/>
+      <c r="CE56" s="24"/>
+      <c r="CF56" s="24"/>
+      <c r="CG56" s="24"/>
+      <c r="CH56" s="24"/>
+      <c r="CI56" s="24"/>
+      <c r="CJ56" s="24"/>
+      <c r="CK56" s="24"/>
+      <c r="CL56" s="24"/>
+      <c r="CM56" s="24"/>
+      <c r="CN56" s="24"/>
+      <c r="CO56" s="24"/>
+      <c r="CP56" s="24"/>
+      <c r="CQ56" s="24"/>
+      <c r="CR56" s="24"/>
+      <c r="CS56" s="24"/>
+      <c r="CT56" s="24"/>
+      <c r="CU56" s="24"/>
+      <c r="CV56" s="24"/>
+      <c r="CW56" s="24"/>
+      <c r="CX56" s="24"/>
+      <c r="CY56" s="24"/>
+      <c r="CZ56" s="24"/>
+      <c r="DA56" s="24"/>
+      <c r="DB56" s="24"/>
+      <c r="DC56" s="24"/>
+      <c r="DD56" s="24"/>
+      <c r="DE56" s="24"/>
+      <c r="DF56" s="24"/>
+      <c r="DG56" s="24"/>
+      <c r="DH56" s="24"/>
+      <c r="DI56" s="24"/>
+      <c r="DJ56" s="24"/>
+      <c r="DK56" s="24"/>
+      <c r="DL56" s="24"/>
+      <c r="DM56" s="24"/>
+      <c r="DN56" s="24"/>
+      <c r="DO56" s="24"/>
+      <c r="DP56" s="24"/>
+      <c r="DQ56" s="24"/>
+      <c r="DR56" s="24"/>
+      <c r="DS56" s="24"/>
+      <c r="DT56" s="24"/>
+      <c r="DU56" s="24"/>
+      <c r="DV56" s="24"/>
+      <c r="DW56" s="24"/>
+      <c r="DX56" s="24"/>
+      <c r="DY56" s="24"/>
+      <c r="DZ56" s="24"/>
+      <c r="EA56" s="24"/>
+      <c r="EB56" s="24"/>
+      <c r="EC56" s="24"/>
+      <c r="ED56" s="24"/>
+      <c r="EE56" s="24"/>
+      <c r="EF56" s="24"/>
+      <c r="EG56" s="24"/>
+      <c r="EH56" s="24"/>
+      <c r="EI56" s="24"/>
+      <c r="EJ56" s="24"/>
+      <c r="EK56" s="24"/>
+      <c r="EL56" s="24"/>
+      <c r="EM56" s="24"/>
+      <c r="EN56" s="24"/>
+      <c r="EO56" s="24"/>
+      <c r="EP56" s="24"/>
+      <c r="EQ56" s="24"/>
+      <c r="ER56" s="24"/>
+      <c r="ES56" s="24"/>
+      <c r="ET56" s="24"/>
+      <c r="EU56" s="24"/>
+      <c r="EV56" s="24"/>
+      <c r="EW56" s="24"/>
+      <c r="EX56" s="24"/>
+      <c r="EY56" s="24"/>
+      <c r="EZ56" s="24"/>
+      <c r="FA56" s="24"/>
+      <c r="FB56" s="24"/>
+      <c r="FC56" s="24"/>
+      <c r="FD56" s="24"/>
+      <c r="FE56" s="24"/>
+      <c r="FF56" s="24"/>
+      <c r="FG56" s="24"/>
+      <c r="FH56" s="24"/>
+      <c r="FI56" s="24"/>
+      <c r="FJ56" s="24"/>
+      <c r="FK56" s="24"/>
+      <c r="FL56" s="24"/>
+      <c r="FM56" s="24"/>
+      <c r="FN56" s="24"/>
+      <c r="FO56" s="24"/>
+      <c r="FP56" s="24"/>
+      <c r="FQ56" s="24"/>
+      <c r="FR56" s="24"/>
+      <c r="FS56" s="24"/>
+      <c r="FT56" s="24"/>
+      <c r="FU56" s="24"/>
+      <c r="FV56" s="24"/>
+      <c r="FW56" s="24"/>
+      <c r="FX56" s="24"/>
+      <c r="FY56" s="24"/>
+      <c r="FZ56" s="24"/>
+      <c r="GA56" s="24"/>
+      <c r="GB56" s="24"/>
+      <c r="GC56" s="24"/>
+      <c r="GD56" s="24"/>
+      <c r="GE56" s="24"/>
+      <c r="GF56" s="24"/>
+      <c r="GG56" s="24"/>
+      <c r="GH56" s="24"/>
+      <c r="GI56" s="24"/>
+      <c r="GJ56" s="24"/>
+      <c r="GK56" s="24"/>
+      <c r="GL56" s="24"/>
+      <c r="GM56" s="24"/>
+      <c r="GN56" s="24"/>
+      <c r="GO56" s="24"/>
+      <c r="GP56" s="24"/>
+      <c r="GQ56" s="24"/>
+      <c r="GR56" s="24"/>
+      <c r="GS56" s="24"/>
+      <c r="GT56" s="24"/>
+      <c r="GU56" s="24"/>
+      <c r="GV56" s="24"/>
+      <c r="GW56" s="24"/>
+      <c r="GX56" s="24"/>
+      <c r="GY56" s="24"/>
+      <c r="GZ56" s="24"/>
+      <c r="HA56" s="24"/>
+      <c r="HB56" s="24"/>
+      <c r="HC56" s="24"/>
+      <c r="HD56" s="24"/>
+      <c r="HE56" s="24"/>
+      <c r="HF56" s="24"/>
+      <c r="HG56" s="24"/>
+      <c r="HH56" s="24"/>
+      <c r="HI56" s="24"/>
+      <c r="HJ56" s="24"/>
+      <c r="HK56" s="24"/>
+      <c r="HL56" s="24"/>
+      <c r="HM56" s="24"/>
+      <c r="HN56" s="24"/>
+      <c r="HO56" s="24"/>
+      <c r="HP56" s="24"/>
+      <c r="HQ56" s="24"/>
+      <c r="HR56" s="24"/>
+      <c r="HS56" s="24"/>
+      <c r="HT56" s="24"/>
+      <c r="HU56" s="24"/>
+      <c r="HV56" s="24"/>
+      <c r="HW56" s="24"/>
+      <c r="HX56" s="24"/>
+      <c r="HY56" s="24"/>
+      <c r="HZ56" s="24"/>
     </row>
     <row r="57" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C57" s="30"/>
       <c r="D57" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F57" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C58" s="30"/>
       <c r="D58" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="5">
-        <v>70</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F58" s="2">
+        <v>10</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="5">
-        <v>20</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="20" t="s">
-        <v>37</v>
+      <c r="D60" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F60" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>87</v>
+      <c r="D61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="F61" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="13">
-        <v>5</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>80</v>
+      <c r="D62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="54">
+        <v>17</v>
+      </c>
+      <c r="G62" s="56" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="17">
-        <v>5</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="16">
-        <v>123</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F63" s="53">
+        <v>2</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="9" t="s">
-        <v>36</v>
+      <c r="D64" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="17">
-        <v>8</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F64" s="53">
+        <v>9</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="17">
-        <v>3</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="14"/>
+      <c r="F65" s="53">
+        <v>15</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="16">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="17">
-        <v>15</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="F66" s="53">
+        <v>3</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F67" s="17">
-        <v>3</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="14"/>
+      <c r="D67" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="53">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" s="17">
-        <v>1</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="14"/>
+      <c r="D68" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="53">
+        <v>50</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="31"/>
       <c r="D69" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="17">
-        <v>25</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F69" s="53">
+        <v>3</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="17">
+        <v>5</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="53">
         <v>4</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="14"/>
+      <c r="G70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="17">
-        <v>20</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="53">
+        <v>60</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="16">
+        <v>134</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="17">
-        <v>4</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="F72" s="53">
+        <v>5</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="31"/>
       <c r="D73" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F73" s="17">
-        <v>35</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="16">
-        <v>155</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F73" s="53">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="9" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="17">
-        <v>10</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F74" s="53">
+        <v>3</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="17">
-        <v>5</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H75" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="F75" s="53">
+        <v>20</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="31"/>
       <c r="D76" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="17">
-        <v>25</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F76" s="53">
+        <v>8</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="17">
-        <v>4</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="53">
+        <v>17</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="16">
+        <v>35</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="17">
-        <v>2</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="53">
+        <v>12</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="16">
+        <v>106</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F79" s="17">
-        <v>3</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="53">
+        <v>25</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="31"/>
       <c r="D80" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="17">
-        <v>2</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="F80" s="53">
+        <v>5</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" s="17">
-        <v>25</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="53">
+        <v>33</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="31"/>
       <c r="D82" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="17">
-        <v>15</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82" s="16">
-        <v>159</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F82" s="53">
+        <v>1</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="31"/>
       <c r="D83" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="17">
-        <v>20</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H83" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="F83" s="53">
+        <v>25</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="16">
+        <v>144</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="31"/>
       <c r="D84" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="17">
-        <v>15</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F84" s="53">
+        <v>20</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="16">
+        <v>39</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="9" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="31"/>
+      <c r="D85" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="17">
-        <v>6</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F85" s="53">
+        <v>3</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="23" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="31"/>
+      <c r="D86" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="17">
-        <v>4</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H86" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F86" s="53">
+        <v>2</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="31"/>
       <c r="D87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F87" s="17">
-        <v>3</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H87" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="53">
+        <v>1</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="31"/>
+      <c r="D88" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="E88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F88" s="17">
-        <v>5</v>
-      </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F88" s="53">
+        <v>5</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="31"/>
       <c r="D89" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="17">
-        <v>7</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="F89" s="16">
+        <v>5</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="15">
+        <v>123</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="17">
-        <v>80</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H90" s="14"/>
+      <c r="F90" s="16">
+        <v>8</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="23" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="31"/>
+      <c r="D91" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="17">
-        <v>2</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F91" s="16">
+        <v>3</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F92" s="17">
-        <v>2</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="16">
+        <v>3</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="17">
-        <v>15</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="16">
+        <v>4</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="9" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="17">
-        <v>25</v>
-      </c>
-      <c r="G94" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="16">
         <v>4</v>
       </c>
-      <c r="H94" s="14"/>
+      <c r="G94" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="13"/>
       <c r="D95" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="17">
-        <v>8</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H95" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="F95" s="16">
+        <v>35</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="15">
+        <v>155</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="17">
+        <v>5</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="16">
         <v>10</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="14"/>
+      <c r="G96" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" s="17">
-        <v>2</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" s="16">
+        <v>3</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="17">
-        <v>100</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H98" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F98" s="16">
+        <v>2</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="23" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="17">
-        <v>5</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="F99" s="16">
+        <v>15</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="15">
+        <v>159</v>
+      </c>
     </row>
     <row r="100" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="16">
         <v>6</v>
       </c>
-      <c r="B100" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="17">
-        <v>5</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="14"/>
+      <c r="G100" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="17">
-        <v>5</v>
-      </c>
-      <c r="G101" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="16">
         <v>4</v>
       </c>
-      <c r="H101" s="14"/>
+      <c r="G101" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" s="17">
-        <v>90</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H102" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F102" s="16">
+        <v>2</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="13"/>
       <c r="D103" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" s="17">
-        <v>5</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="F103" s="16">
+        <v>2</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="17">
-        <v>20</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H104" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="F104" s="16">
+        <v>25</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="17">
-        <v>3</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="16">
+        <v>2</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="17">
-        <v>1</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="16">
+        <v>5</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="17">
-        <v>42</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H107" s="14"/>
+      <c r="F107" s="16">
+        <v>5</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F108" s="17">
-        <v>7</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H108" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="16">
+        <v>5</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F109" s="17">
-        <v>5</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="16">
+        <v>5</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="17">
-        <v>3</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" s="16">
+        <v>3</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F111" s="17">
-        <v>7</v>
-      </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-    </row>
-    <row r="112" spans="1:234" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" s="38">
-        <v>21</v>
-      </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
-      <c r="T112" s="32"/>
-      <c r="U112" s="32"/>
-      <c r="V112" s="32"/>
-      <c r="W112" s="32"/>
-      <c r="X112" s="32"/>
-      <c r="Y112" s="32"/>
-      <c r="Z112" s="32"/>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
-      <c r="AC112" s="32"/>
-      <c r="AD112" s="32"/>
-      <c r="AE112" s="32"/>
-      <c r="AF112" s="32"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
-      <c r="AI112" s="32"/>
-      <c r="AJ112" s="32"/>
-      <c r="AK112" s="32"/>
-      <c r="AL112" s="32"/>
-      <c r="AM112" s="32"/>
-      <c r="AN112" s="32"/>
-      <c r="AO112" s="32"/>
-      <c r="AP112" s="32"/>
-      <c r="AQ112" s="32"/>
-      <c r="AR112" s="32"/>
-      <c r="AS112" s="32"/>
-      <c r="AT112" s="32"/>
-      <c r="AU112" s="32"/>
-      <c r="AV112" s="32"/>
-      <c r="AW112" s="32"/>
-      <c r="AX112" s="32"/>
-      <c r="AY112" s="32"/>
-      <c r="AZ112" s="32"/>
-      <c r="BA112" s="32"/>
-      <c r="BB112" s="32"/>
-      <c r="BC112" s="32"/>
-      <c r="BD112" s="32"/>
-      <c r="BE112" s="32"/>
-      <c r="BF112" s="32"/>
-      <c r="BG112" s="32"/>
-      <c r="BH112" s="32"/>
-      <c r="BI112" s="32"/>
-      <c r="BJ112" s="32"/>
-      <c r="BK112" s="32"/>
-      <c r="BL112" s="32"/>
-      <c r="BM112" s="32"/>
-      <c r="BN112" s="32"/>
-      <c r="BO112" s="32"/>
-      <c r="BP112" s="32"/>
-      <c r="BQ112" s="32"/>
-      <c r="BR112" s="32"/>
-      <c r="BS112" s="32"/>
-      <c r="BT112" s="32"/>
-      <c r="BU112" s="32"/>
-      <c r="BV112" s="32"/>
-      <c r="BW112" s="32"/>
-      <c r="BX112" s="32"/>
-      <c r="BY112" s="32"/>
-      <c r="BZ112" s="32"/>
-      <c r="CA112" s="32"/>
-      <c r="CB112" s="32"/>
-      <c r="CC112" s="32"/>
-      <c r="CD112" s="32"/>
-      <c r="CE112" s="32"/>
-      <c r="CF112" s="32"/>
-      <c r="CG112" s="32"/>
-      <c r="CH112" s="32"/>
-      <c r="CI112" s="32"/>
-      <c r="CJ112" s="32"/>
-      <c r="CK112" s="32"/>
-      <c r="CL112" s="32"/>
-      <c r="CM112" s="32"/>
-      <c r="CN112" s="32"/>
-      <c r="CO112" s="32"/>
-      <c r="CP112" s="32"/>
-      <c r="CQ112" s="32"/>
-      <c r="CR112" s="32"/>
-      <c r="CS112" s="32"/>
-      <c r="CT112" s="32"/>
-      <c r="CU112" s="32"/>
-      <c r="CV112" s="32"/>
-      <c r="CW112" s="32"/>
-      <c r="CX112" s="32"/>
-      <c r="CY112" s="32"/>
-      <c r="CZ112" s="32"/>
-      <c r="DA112" s="32"/>
-      <c r="DB112" s="32"/>
-      <c r="DC112" s="32"/>
-      <c r="DD112" s="32"/>
-      <c r="DE112" s="32"/>
-      <c r="DF112" s="32"/>
-      <c r="DG112" s="32"/>
-      <c r="DH112" s="32"/>
-      <c r="DI112" s="32"/>
-      <c r="DJ112" s="32"/>
-      <c r="DK112" s="32"/>
-      <c r="DL112" s="32"/>
-      <c r="DM112" s="32"/>
-      <c r="DN112" s="32"/>
-      <c r="DO112" s="32"/>
-      <c r="DP112" s="32"/>
-      <c r="DQ112" s="32"/>
-      <c r="DR112" s="32"/>
-      <c r="DS112" s="32"/>
-      <c r="DT112" s="32"/>
-      <c r="DU112" s="32"/>
-      <c r="DV112" s="32"/>
-      <c r="DW112" s="32"/>
-      <c r="DX112" s="32"/>
-      <c r="DY112" s="32"/>
-      <c r="DZ112" s="32"/>
-      <c r="EA112" s="32"/>
-      <c r="EB112" s="32"/>
-      <c r="EC112" s="32"/>
-      <c r="ED112" s="32"/>
-      <c r="EE112" s="32"/>
-      <c r="EF112" s="32"/>
-      <c r="EG112" s="32"/>
-      <c r="EH112" s="32"/>
-      <c r="EI112" s="32"/>
-      <c r="EJ112" s="32"/>
-      <c r="EK112" s="32"/>
-      <c r="EL112" s="32"/>
-      <c r="EM112" s="32"/>
-      <c r="EN112" s="32"/>
-      <c r="EO112" s="32"/>
-      <c r="EP112" s="32"/>
-      <c r="EQ112" s="32"/>
-      <c r="ER112" s="32"/>
-      <c r="ES112" s="32"/>
-      <c r="ET112" s="32"/>
-      <c r="EU112" s="32"/>
-      <c r="EV112" s="32"/>
-      <c r="EW112" s="32"/>
-      <c r="EX112" s="32"/>
-      <c r="EY112" s="32"/>
-      <c r="EZ112" s="32"/>
-      <c r="FA112" s="32"/>
-      <c r="FB112" s="32"/>
-      <c r="FC112" s="32"/>
-      <c r="FD112" s="32"/>
-      <c r="FE112" s="32"/>
-      <c r="FF112" s="32"/>
-      <c r="FG112" s="32"/>
-      <c r="FH112" s="32"/>
-      <c r="FI112" s="32"/>
-      <c r="FJ112" s="32"/>
-      <c r="FK112" s="32"/>
-      <c r="FL112" s="32"/>
-      <c r="FM112" s="32"/>
-      <c r="FN112" s="32"/>
-      <c r="FO112" s="32"/>
-      <c r="FP112" s="32"/>
-      <c r="FQ112" s="32"/>
-      <c r="FR112" s="32"/>
-      <c r="FS112" s="32"/>
-      <c r="FT112" s="32"/>
-      <c r="FU112" s="32"/>
-      <c r="FV112" s="32"/>
-      <c r="FW112" s="32"/>
-      <c r="FX112" s="32"/>
-      <c r="FY112" s="32"/>
-      <c r="FZ112" s="32"/>
-      <c r="GA112" s="32"/>
-      <c r="GB112" s="32"/>
-      <c r="GC112" s="32"/>
-      <c r="GD112" s="32"/>
-      <c r="GE112" s="32"/>
-      <c r="GF112" s="32"/>
-      <c r="GG112" s="32"/>
-      <c r="GH112" s="32"/>
-      <c r="GI112" s="32"/>
-      <c r="GJ112" s="32"/>
-      <c r="GK112" s="32"/>
-      <c r="GL112" s="32"/>
-      <c r="GM112" s="32"/>
-      <c r="GN112" s="32"/>
-      <c r="GO112" s="32"/>
-      <c r="GP112" s="32"/>
-      <c r="GQ112" s="32"/>
-      <c r="GR112" s="32"/>
-      <c r="GS112" s="32"/>
-      <c r="GT112" s="32"/>
-      <c r="GU112" s="32"/>
-      <c r="GV112" s="32"/>
-      <c r="GW112" s="32"/>
-      <c r="GX112" s="32"/>
-      <c r="GY112" s="32"/>
-      <c r="GZ112" s="32"/>
-      <c r="HA112" s="32"/>
-      <c r="HB112" s="32"/>
-      <c r="HC112" s="32"/>
-      <c r="HD112" s="32"/>
-      <c r="HE112" s="32"/>
-      <c r="HF112" s="32"/>
-      <c r="HG112" s="32"/>
-      <c r="HH112" s="32"/>
-      <c r="HI112" s="32"/>
-      <c r="HJ112" s="32"/>
-      <c r="HK112" s="32"/>
-      <c r="HL112" s="32"/>
-      <c r="HM112" s="32"/>
-      <c r="HN112" s="32"/>
-      <c r="HO112" s="32"/>
-      <c r="HP112" s="32"/>
-      <c r="HQ112" s="32"/>
-      <c r="HR112" s="32"/>
-      <c r="HS112" s="32"/>
-      <c r="HT112" s="32"/>
-      <c r="HU112" s="32"/>
-      <c r="HV112" s="32"/>
-      <c r="HW112" s="32"/>
-      <c r="HX112" s="32"/>
-      <c r="HY112" s="32"/>
-      <c r="HZ112" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="16">
+        <v>5</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:234" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="16">
+        <v>3</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="24"/>
+      <c r="U112" s="24"/>
+      <c r="V112" s="24"/>
+      <c r="W112" s="24"/>
+      <c r="X112" s="24"/>
+      <c r="Y112" s="24"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="24"/>
+      <c r="AB112" s="24"/>
+      <c r="AC112" s="24"/>
+      <c r="AD112" s="24"/>
+      <c r="AE112" s="24"/>
+      <c r="AF112" s="24"/>
+      <c r="AG112" s="24"/>
+      <c r="AH112" s="24"/>
+      <c r="AI112" s="24"/>
+      <c r="AJ112" s="24"/>
+      <c r="AK112" s="24"/>
+      <c r="AL112" s="24"/>
+      <c r="AM112" s="24"/>
+      <c r="AN112" s="24"/>
+      <c r="AO112" s="24"/>
+      <c r="AP112" s="24"/>
+      <c r="AQ112" s="24"/>
+      <c r="AR112" s="24"/>
+      <c r="AS112" s="24"/>
+      <c r="AT112" s="24"/>
+      <c r="AU112" s="24"/>
+      <c r="AV112" s="24"/>
+      <c r="AW112" s="24"/>
+      <c r="AX112" s="24"/>
+      <c r="AY112" s="24"/>
+      <c r="AZ112" s="24"/>
+      <c r="BA112" s="24"/>
+      <c r="BB112" s="24"/>
+      <c r="BC112" s="24"/>
+      <c r="BD112" s="24"/>
+      <c r="BE112" s="24"/>
+      <c r="BF112" s="24"/>
+      <c r="BG112" s="24"/>
+      <c r="BH112" s="24"/>
+      <c r="BI112" s="24"/>
+      <c r="BJ112" s="24"/>
+      <c r="BK112" s="24"/>
+      <c r="BL112" s="24"/>
+      <c r="BM112" s="24"/>
+      <c r="BN112" s="24"/>
+      <c r="BO112" s="24"/>
+      <c r="BP112" s="24"/>
+      <c r="BQ112" s="24"/>
+      <c r="BR112" s="24"/>
+      <c r="BS112" s="24"/>
+      <c r="BT112" s="24"/>
+      <c r="BU112" s="24"/>
+      <c r="BV112" s="24"/>
+      <c r="BW112" s="24"/>
+      <c r="BX112" s="24"/>
+      <c r="BY112" s="24"/>
+      <c r="BZ112" s="24"/>
+      <c r="CA112" s="24"/>
+      <c r="CB112" s="24"/>
+      <c r="CC112" s="24"/>
+      <c r="CD112" s="24"/>
+      <c r="CE112" s="24"/>
+      <c r="CF112" s="24"/>
+      <c r="CG112" s="24"/>
+      <c r="CH112" s="24"/>
+      <c r="CI112" s="24"/>
+      <c r="CJ112" s="24"/>
+      <c r="CK112" s="24"/>
+      <c r="CL112" s="24"/>
+      <c r="CM112" s="24"/>
+      <c r="CN112" s="24"/>
+      <c r="CO112" s="24"/>
+      <c r="CP112" s="24"/>
+      <c r="CQ112" s="24"/>
+      <c r="CR112" s="24"/>
+      <c r="CS112" s="24"/>
+      <c r="CT112" s="24"/>
+      <c r="CU112" s="24"/>
+      <c r="CV112" s="24"/>
+      <c r="CW112" s="24"/>
+      <c r="CX112" s="24"/>
+      <c r="CY112" s="24"/>
+      <c r="CZ112" s="24"/>
+      <c r="DA112" s="24"/>
+      <c r="DB112" s="24"/>
+      <c r="DC112" s="24"/>
+      <c r="DD112" s="24"/>
+      <c r="DE112" s="24"/>
+      <c r="DF112" s="24"/>
+      <c r="DG112" s="24"/>
+      <c r="DH112" s="24"/>
+      <c r="DI112" s="24"/>
+      <c r="DJ112" s="24"/>
+      <c r="DK112" s="24"/>
+      <c r="DL112" s="24"/>
+      <c r="DM112" s="24"/>
+      <c r="DN112" s="24"/>
+      <c r="DO112" s="24"/>
+      <c r="DP112" s="24"/>
+      <c r="DQ112" s="24"/>
+      <c r="DR112" s="24"/>
+      <c r="DS112" s="24"/>
+      <c r="DT112" s="24"/>
+      <c r="DU112" s="24"/>
+      <c r="DV112" s="24"/>
+      <c r="DW112" s="24"/>
+      <c r="DX112" s="24"/>
+      <c r="DY112" s="24"/>
+      <c r="DZ112" s="24"/>
+      <c r="EA112" s="24"/>
+      <c r="EB112" s="24"/>
+      <c r="EC112" s="24"/>
+      <c r="ED112" s="24"/>
+      <c r="EE112" s="24"/>
+      <c r="EF112" s="24"/>
+      <c r="EG112" s="24"/>
+      <c r="EH112" s="24"/>
+      <c r="EI112" s="24"/>
+      <c r="EJ112" s="24"/>
+      <c r="EK112" s="24"/>
+      <c r="EL112" s="24"/>
+      <c r="EM112" s="24"/>
+      <c r="EN112" s="24"/>
+      <c r="EO112" s="24"/>
+      <c r="EP112" s="24"/>
+      <c r="EQ112" s="24"/>
+      <c r="ER112" s="24"/>
+      <c r="ES112" s="24"/>
+      <c r="ET112" s="24"/>
+      <c r="EU112" s="24"/>
+      <c r="EV112" s="24"/>
+      <c r="EW112" s="24"/>
+      <c r="EX112" s="24"/>
+      <c r="EY112" s="24"/>
+      <c r="EZ112" s="24"/>
+      <c r="FA112" s="24"/>
+      <c r="FB112" s="24"/>
+      <c r="FC112" s="24"/>
+      <c r="FD112" s="24"/>
+      <c r="FE112" s="24"/>
+      <c r="FF112" s="24"/>
+      <c r="FG112" s="24"/>
+      <c r="FH112" s="24"/>
+      <c r="FI112" s="24"/>
+      <c r="FJ112" s="24"/>
+      <c r="FK112" s="24"/>
+      <c r="FL112" s="24"/>
+      <c r="FM112" s="24"/>
+      <c r="FN112" s="24"/>
+      <c r="FO112" s="24"/>
+      <c r="FP112" s="24"/>
+      <c r="FQ112" s="24"/>
+      <c r="FR112" s="24"/>
+      <c r="FS112" s="24"/>
+      <c r="FT112" s="24"/>
+      <c r="FU112" s="24"/>
+      <c r="FV112" s="24"/>
+      <c r="FW112" s="24"/>
+      <c r="FX112" s="24"/>
+      <c r="FY112" s="24"/>
+      <c r="FZ112" s="24"/>
+      <c r="GA112" s="24"/>
+      <c r="GB112" s="24"/>
+      <c r="GC112" s="24"/>
+      <c r="GD112" s="24"/>
+      <c r="GE112" s="24"/>
+      <c r="GF112" s="24"/>
+      <c r="GG112" s="24"/>
+      <c r="GH112" s="24"/>
+      <c r="GI112" s="24"/>
+      <c r="GJ112" s="24"/>
+      <c r="GK112" s="24"/>
+      <c r="GL112" s="24"/>
+      <c r="GM112" s="24"/>
+      <c r="GN112" s="24"/>
+      <c r="GO112" s="24"/>
+      <c r="GP112" s="24"/>
+      <c r="GQ112" s="24"/>
+      <c r="GR112" s="24"/>
+      <c r="GS112" s="24"/>
+      <c r="GT112" s="24"/>
+      <c r="GU112" s="24"/>
+      <c r="GV112" s="24"/>
+      <c r="GW112" s="24"/>
+      <c r="GX112" s="24"/>
+      <c r="GY112" s="24"/>
+      <c r="GZ112" s="24"/>
+      <c r="HA112" s="24"/>
+      <c r="HB112" s="24"/>
+      <c r="HC112" s="24"/>
+      <c r="HD112" s="24"/>
+      <c r="HE112" s="24"/>
+      <c r="HF112" s="24"/>
+      <c r="HG112" s="24"/>
+      <c r="HH112" s="24"/>
+      <c r="HI112" s="24"/>
+      <c r="HJ112" s="24"/>
+      <c r="HK112" s="24"/>
+      <c r="HL112" s="24"/>
+      <c r="HM112" s="24"/>
+      <c r="HN112" s="24"/>
+      <c r="HO112" s="24"/>
+      <c r="HP112" s="24"/>
+      <c r="HQ112" s="24"/>
+      <c r="HR112" s="24"/>
+      <c r="HS112" s="24"/>
+      <c r="HT112" s="24"/>
+      <c r="HU112" s="24"/>
+      <c r="HV112" s="24"/>
+      <c r="HW112" s="24"/>
+      <c r="HX112" s="24"/>
+      <c r="HY112" s="24"/>
+      <c r="HZ112" s="24"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="17">
-        <v>15</v>
-      </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="16">
+        <v>7</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="13"/>
       <c r="D114" s="3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="17">
-        <v>85</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H114" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F114" s="16">
+        <v>5</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="14"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="3" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F115" s="17">
-        <v>2</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H115" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F115" s="16">
+        <v>45</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F116" s="17">
-        <v>3</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H116" s="14"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" s="16">
+        <v>5</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="15">
+        <v>115</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="14"/>
+      <c r="C117" s="13"/>
       <c r="D117" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="17">
-        <v>7</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="F117" s="16">
+        <v>2</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F118" s="17">
-        <v>5</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H118" s="14"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="16">
+        <v>5</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="13"/>
       <c r="D119" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F119" s="17">
-        <v>45</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119" s="14"/>
+      <c r="F119" s="16">
+        <v>10</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F120" s="17">
-        <v>5</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="16">
-        <v>115</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="16">
+        <v>10</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F121" s="17">
+        <v>5</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="16">
         <v>2</v>
       </c>
-      <c r="G121" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H121" s="14"/>
+      <c r="G121" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F122" s="17">
-        <v>5</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H122" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="16">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="17">
-        <v>10</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" s="16">
+        <v>7</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="15">
+        <v>211</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="13"/>
       <c r="D124" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" s="17">
-        <v>10</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="F124" s="16">
+        <v>7</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="17">
-        <v>10</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" s="14"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F125" s="16">
+        <v>8</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F126" s="17">
-        <v>2</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H126" s="14"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" s="16">
+        <v>1</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F127" s="17">
-        <v>1</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H127" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="16">
+        <v>7</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F128" s="17">
-        <v>7</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H128" s="16">
-        <v>211</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" s="16">
+        <v>15</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F129" s="17">
-        <v>10</v>
-      </c>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" s="16">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="13"/>
       <c r="D130" s="3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F130" s="17">
-        <v>75</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H130" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F130" s="16">
+        <v>25</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="13"/>
       <c r="D131" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" s="17">
-        <v>15</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H131" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F131" s="16">
+        <v>8</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F132" s="17">
-        <v>8</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H132" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" s="16">
+        <v>3</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="3" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="17">
-        <v>7</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H133" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F133" s="16">
+        <v>15</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F134" s="17">
-        <v>8</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="16">
+        <v>25</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F135" s="17">
-        <v>1</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H135" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E135" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="16">
+        <v>10</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="31"/>
       <c r="D136" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136" s="17">
-        <v>95</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H136" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="F136" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="31"/>
       <c r="D137" s="3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="17">
-        <v>7</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H137" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="F137" s="53">
+        <v>1</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="16"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F138" s="17">
-        <v>15</v>
-      </c>
-      <c r="G138" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="31"/>
+      <c r="D138" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F138" s="53">
         <v>4</v>
       </c>
-      <c r="H138" s="14"/>
+      <c r="G138" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F139" s="17">
+        <v>5</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H139" s="14"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E139" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139" s="53">
+        <v>3</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F140" s="17">
-        <v>20</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="31"/>
+      <c r="D140" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E140" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F140" s="53">
+        <v>27</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" s="16">
+        <v>113</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F141" s="17">
-        <v>1</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="31"/>
+      <c r="D141" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E141" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F141" s="53">
+        <v>7</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F142" s="16">
+        <v>4</v>
+      </c>
+      <c r="G142" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="17">
-        <v>25</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H142" s="14"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" s="17">
-        <v>17</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H143" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" s="16">
+        <v>3</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F144" s="17">
-        <v>2</v>
-      </c>
-      <c r="G144" s="14" t="s">
+      <c r="E144" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H144" s="14"/>
+      <c r="F144" s="16">
+        <v>3</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F145" s="17">
-        <v>15</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="16">
+        <v>2</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E146" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F146" s="16">
+        <v>17</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H146" s="13"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F146" s="17">
-        <v>8</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H146" s="14"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F147" s="17">
-        <v>25</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H147" s="14"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="55">
+        <v>21</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H147" s="28"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="31"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F148" s="17">
-        <v>3</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="F148" s="53">
+        <v>28</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" s="17">
-        <v>5</v>
-      </c>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
+      <c r="A149" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="32"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="55">
+        <v>29</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H149" s="28"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F150" s="17">
-        <v>50</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H150" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F150" s="16">
+        <v>25</v>
+      </c>
+      <c r="G150" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F151" s="17">
-        <v>10</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H151" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="F151" s="16">
+        <v>5</v>
+      </c>
+      <c r="G151" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F152" s="16">
+        <v>7</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H152" s="13"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="27"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F152" s="17">
-        <v>15</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H152" s="14"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F153" s="17">
-        <v>25</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H153" s="14"/>
+      <c r="F153" s="28">
+        <v>21</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H153" s="27"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F154" s="17">
-        <v>17</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H154" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154" s="16">
+        <v>15</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F155" s="17">
+        <v>5</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="16">
         <v>10</v>
       </c>
-      <c r="G155" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H155" s="14"/>
+      <c r="G155" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F156" s="17">
-        <v>2</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H156" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="16">
+        <v>5</v>
+      </c>
+      <c r="G156" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H156" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H156">
+    <sortCondition ref="G2:G156"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
